--- a/answers_byQuestion_byGender_post.xlsx
+++ b/answers_byQuestion_byGender_post.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayapatel/Documents/_/honours/Honours-FCI-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{431A6DC9-3266-C440-8620-0EAC96787E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266D978D-E8A3-0A43-A42D-1BEE69509284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="440" windowWidth="25360" windowHeight="13960" activeTab="1" xr2:uid="{23A2CD5D-B1D8-3B48-AC25-8633C569EAF0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PRE" sheetId="1" r:id="rId1"/>
     <sheet name="POST" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -849,7 +849,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,35 +946,35 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4">
-        <f>B3-B2</f>
+        <f t="shared" ref="B4:G4" si="0">B3-B2</f>
         <v>7.5</v>
       </c>
       <c r="C4">
-        <f>C3-C2</f>
+        <f t="shared" si="0"/>
         <v>10.700000000000003</v>
       </c>
       <c r="D4">
-        <f>D3-D2</f>
+        <f t="shared" si="0"/>
         <v>13.399999999999999</v>
       </c>
       <c r="E4">
-        <f>E3-E2</f>
+        <f t="shared" si="0"/>
         <v>4.6000000000000014</v>
       </c>
       <c r="F4">
-        <f>F3-F2</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G4" s="1">
-        <f>G3-G2</f>
+        <f t="shared" si="0"/>
         <v>6.1000000000000085</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:M4" si="0">H3-H2</f>
+        <f t="shared" ref="H4:I4" si="1">H3-H2</f>
         <v>5.8000000000000114</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1000000000000014</v>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
         <v>12.5</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9" si="1">F8-F7</f>
+        <f t="shared" ref="F9" si="2">F8-F7</f>
         <v>14.600000000000001</v>
       </c>
       <c r="G9" s="1">
@@ -1189,23 +1189,23 @@
         <v>4.7999999999999972</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14" si="2">E13-E12</f>
+        <f t="shared" ref="E14" si="3">E13-E12</f>
         <v>7.5999999999999943</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14" si="3">F13-F12</f>
+        <f t="shared" ref="F14" si="4">F13-F12</f>
         <v>9.7999999999999972</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14" si="4">G13-G12</f>
+        <f t="shared" ref="G14" si="5">G13-G12</f>
         <v>11.200000000000003</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14" si="5">H13-H12</f>
+        <f t="shared" ref="H14" si="6">H13-H12</f>
         <v>14.5</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14" si="6">I13-I12</f>
+        <f t="shared" ref="I14" si="7">I13-I12</f>
         <v>13.200000000000003</v>
       </c>
     </row>
@@ -1271,27 +1271,27 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19">
-        <f t="shared" ref="B19" si="7">B18-B17</f>
+        <f t="shared" ref="B19" si="8">B18-B17</f>
         <v>13.599999999999998</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19" si="8">C18-C17</f>
+        <f t="shared" ref="C19" si="9">C18-C17</f>
         <v>9.4000000000000021</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19" si="9">D18-D17</f>
+        <f t="shared" ref="D19" si="10">D18-D17</f>
         <v>13.600000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="10">E18-E17</f>
+        <f t="shared" ref="E19" si="11">E18-E17</f>
         <v>11.200000000000003</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="11">F18-F17</f>
+        <f t="shared" ref="F19" si="12">F18-F17</f>
         <v>1.8999999999999915</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19" si="12">G18-G17</f>
+        <f t="shared" ref="G19" si="13">G18-G17</f>
         <v>13.399999999999999</v>
       </c>
     </row>
